--- a/datasets/raw/SMILES_to_BigSMILES_Conversion.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/mtseifri_ncsu_edu/Documents/Data-Driven Organic Materials Lab/Projects/Polymer scattering dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{60BF9DAF-AF4F-4537-9625-C1F54A2B52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CE0D0C-7CD5-418A-AA4B-F284270D0F74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEF3292-8D01-4561-BF05-9CAA0D0B4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -2140,6 +2140,9 @@
   </si>
   <si>
     <t>CCCCCCCCCCCCC(CCCCCCCCCCCC)n5c1cc(*)c(C(C)=*)cc1c4cc3c(C)cc2cc(*)c(C=*)cc2c3cc45</t>
+  </si>
+  <si>
+    <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
   </si>
 </sst>
 </file>
@@ -3098,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3880,7 +3883,7 @@
         <v>139</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEF3292-8D01-4561-BF05-9CAA0D0B4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B2670-BE29-44BA-AD2C-DF7807BAD63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -2143,6 +2143,9 @@
   </si>
   <si>
     <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
+  </si>
+  <si>
+    <t>[*]C1=CC2=C(C3=C(C(c4sc(CCCCCC)c(CCCCCC)c4)=C2S1)C=C(c5c(CCCCCCCC)cc(c(n6)sc7c6sc(c8sc([*])c(CCCCCCCC)c8)n7)s5)S3)c9sc(CCCCCC)c(CCCCCC)c9</t>
   </si>
 </sst>
 </file>
@@ -3101,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4104,7 +4107,7 @@
         <v>173</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
